--- a/Processor_Sim_Project/Additional Files/Experiment Result.xlsx
+++ b/Processor_Sim_Project/Additional Files/Experiment Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Work\Bristol Uni\Year 4\Advanced-Computer-Architecture\Processor_Sim_Project\Additional Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C53F9-F6AB-4C8A-B4F2-6E9A7B79C9C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC19D3F-A8B3-4CD9-8C4E-BADD1FA512F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15435" xr2:uid="{5F727908-14BD-4144-939F-AA18FB21CB13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{5F727908-14BD-4144-939F-AA18FB21CB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>Experiment 1</t>
   </si>
@@ -124,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -159,11 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -173,6 +176,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,6 +196,5536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IPC for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Each Pipeline Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Scalar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-075C-4348-9455-11349AFEC3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2-Way</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-075C-4348-9455-11349AFEC3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4-Way</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-075C-4348-9455-11349AFEC3BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="588547488"/>
+        <c:axId val="588544536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588547488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark Program,</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588544536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588544536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Instructiond Per Cycle (IPC)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588547488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cycles</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for Each Pipeline Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scalar Cycles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BE78-44A9-B54A-DB0E3963F4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2-Way Cycles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BE78-44A9-B54A-DB0E3963F4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4-Way Cycles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BE78-44A9-B54A-DB0E3963F4AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="587830728"/>
+        <c:axId val="587827448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="587830728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark Program</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587827448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587827448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587830728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Flush Count</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for Each Branch Prediction Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Fixed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flushes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-93C2-4046-9B04-55B9016D9697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flushes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57650</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-93C2-4046-9B04-55B9016D9697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1bitD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flushes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-93C2-4046-9B04-55B9016D9697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2bitD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flushes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$19:$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-93C2-4046-9B04-55B9016D9697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="583384456"/>
+        <c:axId val="583384784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="583384456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark Program</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583384784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583384784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Flushes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583384456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IPC </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>for Different ROB sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factorial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$A$44,Sheet1!$A$48,Sheet1!$A$52,Sheet1!$A$56,Sheet1!$A$60,Sheet1!$A$64,Sheet1!$A$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$44,Sheet1!$C$48,Sheet1!$C$52,Sheet1!$C$56,Sheet1!$C$60,Sheet1!$C$64,Sheet1!$C$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Multiplication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$44,Sheet1!$D$48,Sheet1!$D$52,Sheet1!$D$56,Sheet1!$D$60,Sheet1!$D$64,Sheet1!$D$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Matrix Multiplication (Unrolled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$44,Sheet1!$E$48,Sheet1!$E$52,Sheet1!$E$56,Sheet1!$E$60,Sheet1!$E$64,Sheet1!$E$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vector Addition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$44,Sheet1!$F$48,Sheet1!$F$52,Sheet1!$F$56,Sheet1!$F$60,Sheet1!$F$64,Sheet1!$F$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$44,Sheet1!$G$48,Sheet1!$G$52,Sheet1!$G$56,Sheet1!$G$60,Sheet1!$G$64,Sheet1!$G$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game of Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$44,Sheet1!$H$48,Sheet1!$H$52,Sheet1!$H$56,Sheet1!$H$60,Sheet1!$H$64,Sheet1!$H$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D2EC-4D9A-AB4A-D8AFD4343429}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="710362808"/>
+        <c:axId val="710363136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="710362808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ROB Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710363136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="710363136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Instructions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Per Cycle (IPC)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710362808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350829</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93E8E7A-40ED-469B-914C-46D8CB097A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6801</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7BD3E1-6F46-4575-A51F-D10A55C3611C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FCA7CF-3AE8-48D4-96FB-BEF1C6850B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BF21B4-AB68-4BB7-875D-BDEA0B4BEF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,8 +6027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0937CC-7E30-4D77-9D45-906696E7AE7A}">
   <dimension ref="A2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY41" sqref="AY41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +6043,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -531,213 +6069,222 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.96</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.99</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.97</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.95</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.97</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5712</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>67456</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>61656</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>6648</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>459193</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>402273</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1.86</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1.93</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1.88</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1.77</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1.84</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3012</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>34682</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>30833</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3528</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>250981</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>212589</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>3.11</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3.68</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>3.89</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2.14</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>3.16</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>3.33</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1770</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>18149</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>15867</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>3017</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>143128</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>121819</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -758,348 +6305,512 @@
       <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="C20" s="7">
+        <v>1.58</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="G20" s="7">
         <v>3.09</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>1.22</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="C21" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3699</v>
+      </c>
+      <c r="E21" s="7">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7">
+        <v>999</v>
+      </c>
+      <c r="G21" s="7">
         <v>95229</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="7">
         <v>123963</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="C22" s="7">
+        <v>2601</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="7">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="7">
         <v>107054</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="7">
         <v>248908</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="C23" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D23" s="2">
+        <v>501</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>101</v>
+      </c>
+      <c r="G23" s="2">
         <v>11825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>124945</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="C25" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="G25" s="7">
         <v>2.25</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="7">
         <v>2.67</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="C26" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3699</v>
+      </c>
+      <c r="E26" s="7">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7">
+        <v>999</v>
+      </c>
+      <c r="G26" s="7">
         <v>210603</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="7">
         <v>203764</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
+      <c r="C27" s="7">
+        <v>2602</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="7">
+        <v>100</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="7">
         <v>268253</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="7">
         <v>220789</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
+      <c r="C28" s="2">
+        <v>102</v>
+      </c>
+      <c r="D28" s="2">
+        <v>501</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>101</v>
+      </c>
+      <c r="G28" s="2">
         <v>57650</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>17025</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="C30" s="7">
+        <v>2.76</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.41</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.21</v>
+      </c>
+      <c r="G30" s="7">
         <v>3.09</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="7">
         <v>3.24</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
+      <c r="C31" s="7">
+        <v>2977</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3301</v>
+      </c>
+      <c r="E31" s="7">
+        <v>99</v>
+      </c>
+      <c r="F31" s="7">
+        <v>900</v>
+      </c>
+      <c r="G31" s="7">
         <v>95712</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="7">
         <v>199208</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3">
+      <c r="C32" s="7">
+        <v>3184</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="7">
         <v>107118</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="7">
         <v>207272</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
+      <c r="C33" s="2">
+        <v>207</v>
+      </c>
+      <c r="D33" s="2">
+        <v>999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>200</v>
+      </c>
+      <c r="G33" s="2">
         <v>11406</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>8064</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
+      <c r="C35" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3.68</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3.89</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="G35" s="7">
         <v>3.16</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="7">
         <v>3.33</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="C36" s="7">
+        <v>2499</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3699</v>
+      </c>
+      <c r="E36" s="7">
+        <v>99</v>
+      </c>
+      <c r="F36" s="7">
+        <v>999</v>
+      </c>
+      <c r="G36" s="7">
         <v>98377</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="7">
         <v>199429</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
+      <c r="C37" s="7">
+        <v>2601</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4200</v>
+      </c>
+      <c r="E37" s="7">
+        <v>100</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1100</v>
+      </c>
+      <c r="G37" s="7">
         <v>109863</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="7">
         <v>206324</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3">
+      <c r="C38" s="2">
+        <v>102</v>
+      </c>
+      <c r="D38" s="2">
+        <v>501</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>101</v>
+      </c>
+      <c r="G38" s="2">
         <v>11516</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>6895</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="D41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
@@ -1120,411 +6831,663 @@
       <c r="H43" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="C44" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="H44" s="2">
         <v>2.13</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>8</v>
+      </c>
       <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3">
+      <c r="C45" s="2">
+        <v>1403</v>
+      </c>
+      <c r="D45" s="2">
+        <v>37360</v>
+      </c>
+      <c r="E45" s="2">
+        <v>35458</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2207</v>
+      </c>
+      <c r="G45" s="2">
+        <v>156445</v>
+      </c>
+      <c r="H45" s="2">
         <v>118188</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>8</v>
+      </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="C46" s="2">
+        <v>2912</v>
+      </c>
+      <c r="D46" s="2">
+        <v>39769</v>
+      </c>
+      <c r="E46" s="2">
+        <v>37066</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3324</v>
+      </c>
+      <c r="G46" s="2">
+        <v>234053</v>
+      </c>
+      <c r="H46" s="2">
         <v>185335</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3">
+      <c r="C48" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="H48" s="2">
         <v>3.14</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>16</v>
+      </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
+      <c r="C49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>13639</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15439</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="2">
+        <v>25513</v>
+      </c>
+      <c r="H49" s="2">
         <v>18537</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
+      <c r="C50" s="2">
+        <v>2512</v>
+      </c>
+      <c r="D50" s="2">
+        <v>26057</v>
+      </c>
+      <c r="E50" s="2">
+        <v>22555</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3018</v>
+      </c>
+      <c r="G50" s="2">
+        <v>154220</v>
+      </c>
+      <c r="H50" s="2">
         <v>128385</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="C52" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G52" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H52" s="2">
         <v>3.33</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>32</v>
+      </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="C53" s="2">
+        <v>400</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5224</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9420</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1687</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>32</v>
+      </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="C54" s="2">
+        <v>2117</v>
+      </c>
+      <c r="D54" s="2">
+        <v>18555</v>
+      </c>
+      <c r="E54" s="2">
+        <v>17555</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3016</v>
+      </c>
+      <c r="G54" s="2">
+        <v>143129</v>
+      </c>
+      <c r="H54" s="2">
         <v>121819</v>
       </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
+      <c r="C56" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="G56" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H56" s="2">
         <v>3.33</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>64</v>
+      </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="C57" s="2">
+        <v>198</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4799</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6395</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1341</v>
+      </c>
+      <c r="G57" s="2">
         <v>0</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>64</v>
+      </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="C58" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D58" s="2">
+        <v>18149</v>
+      </c>
+      <c r="E58" s="2">
+        <v>15953</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2810</v>
+      </c>
+      <c r="G58" s="2">
+        <v>143128</v>
+      </c>
+      <c r="H58" s="2">
         <v>121819</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>128</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3">
+      <c r="C60" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G60" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H60" s="2">
         <v>3.33</v>
       </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>128</v>
+      </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3">
+      <c r="C61" s="2">
+        <v>198</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4799</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6194</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1231</v>
+      </c>
+      <c r="G61" s="2">
         <v>0</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>128</v>
+      </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
+      <c r="C62" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D62" s="2">
+        <v>18149</v>
+      </c>
+      <c r="E62" s="2">
+        <v>15867</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3017</v>
+      </c>
+      <c r="G62" s="2">
+        <v>143128</v>
+      </c>
+      <c r="H62" s="2">
         <v>121819</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>256</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3">
+      <c r="C64" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H64" s="2">
         <v>3.33</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>256</v>
+      </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
+      <c r="C65" s="2">
+        <v>198</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4799</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6194</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1231</v>
+      </c>
+      <c r="G65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>256</v>
+      </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3">
+      <c r="C66" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D66" s="2">
+        <v>18149</v>
+      </c>
+      <c r="E66" s="2">
+        <v>15867</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3017</v>
+      </c>
+      <c r="G66" s="2">
+        <v>143128</v>
+      </c>
+      <c r="H66" s="2">
         <v>121819</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>512</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3">
+      <c r="C68" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H68" s="2">
         <v>3.33</v>
       </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>512</v>
+      </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
+      <c r="C69" s="2">
+        <v>198</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4799</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6194</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1231</v>
+      </c>
+      <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>512</v>
+      </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3">
+      <c r="C70" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D70" s="2">
+        <v>18149</v>
+      </c>
+      <c r="E70" s="2">
+        <v>15867</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3017</v>
+      </c>
+      <c r="G70" s="2">
+        <v>143128</v>
+      </c>
+      <c r="H70" s="2">
         <v>121819</v>
       </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1533,5 +7496,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>